--- a/src/test/resources/testdata/KhanAcademyData.xlsx
+++ b/src/test/resources/testdata/KhanAcademyData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20310" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20310" windowHeight="6825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="invalidCredentialTest" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Password</t>
   </si>
@@ -33,38 +33,61 @@
     <t>ExpectedValue</t>
   </si>
   <si>
-    <t>bala</t>
-  </si>
-  <si>
-    <t>bala123</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>There was an issue signing in</t>
   </si>
   <si>
-    <t>peter</t>
-  </si>
-  <si>
-    <t>wick</t>
-  </si>
-  <si>
-    <t>kong</t>
-  </si>
-  <si>
-    <t>king</t>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>MARK123</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>wick9999@gmail.com</t>
+  </si>
+  <si>
+    <t>wick@123</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Wick</t>
+  </si>
+  <si>
+    <t>22/Jul/1991</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +110,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +414,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -398,46 +425,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -447,12 +441,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/KhanAcademyData.xlsx
+++ b/src/test/resources/testdata/KhanAcademyData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Password</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>22/Jul/1991</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Dinakaran</t>
+  </si>
+  <si>
+    <t>22/Jul/1992</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,12 +498,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>